--- a/data/Risks_new.xlsx
+++ b/data/Risks_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TRL" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,13 @@
     <sheet name="ERL" sheetId="3" r:id="rId3"/>
     <sheet name="ORL" sheetId="4" r:id="rId4"/>
     <sheet name="CRL" sheetId="5" r:id="rId5"/>
-    <sheet name="Лист1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="20">
   <si>
     <t>Level</t>
   </si>
@@ -80,21 +79,6 @@
   <si>
     <t>Ф19</t>
   </si>
-  <si>
-    <t>Р1 = Ф1 - Ф5</t>
-  </si>
-  <si>
-    <t>Р2 = Ф6 - Ф10</t>
-  </si>
-  <si>
-    <t>Р3 = Ф11 - Ф13 + Ф17 - Ф18</t>
-  </si>
-  <si>
-    <t>Р4 = Ф14 - Ф16</t>
-  </si>
-  <si>
-    <t>Р5 = Ф19</t>
-  </si>
 </sst>
 </file>
 
@@ -109,18 +93,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -212,15 +190,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -532,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T26"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,61 +520,61 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -629,7 +604,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="5">
+      <c r="T2" s="1">
         <v>1</v>
       </c>
     </row>
@@ -663,7 +638,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="5">
+      <c r="T3" s="1">
         <v>1</v>
       </c>
     </row>
@@ -671,33 +646,33 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="8">
-        <v>1</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8">
-        <v>1</v>
-      </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="6">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5">
         <v>1</v>
       </c>
     </row>
@@ -705,29 +680,29 @@
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="7">
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6">
         <v>1</v>
       </c>
     </row>
@@ -755,7 +730,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="5">
+      <c r="T6" s="1">
         <v>1</v>
       </c>
     </row>
@@ -763,33 +738,33 @@
       <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8">
-        <v>1</v>
-      </c>
-      <c r="H7" s="8">
-        <v>1</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="6">
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5">
         <v>1</v>
       </c>
     </row>
@@ -797,27 +772,27 @@
       <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="9">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="7">
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6">
         <v>1</v>
       </c>
     </row>
@@ -847,7 +822,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="5">
+      <c r="T9" s="1">
         <v>1</v>
       </c>
     </row>
@@ -877,7 +852,7 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="5">
+      <c r="T10" s="1">
         <v>1</v>
       </c>
     </row>
@@ -885,33 +860,33 @@
       <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="8">
-        <v>1</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="6">
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5">
         <v>1</v>
       </c>
     </row>
@@ -919,27 +894,27 @@
       <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="9">
-        <v>1</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="7">
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6">
         <v>1</v>
       </c>
     </row>
@@ -969,7 +944,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="5">
+      <c r="T13" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1003,7 +978,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="5">
+      <c r="T14" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1011,39 +986,39 @@
       <c r="A15" s="2">
         <v>4</v>
       </c>
-      <c r="B15" s="8">
-        <v>1</v>
-      </c>
-      <c r="C15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8">
-        <v>1</v>
-      </c>
-      <c r="J15" s="8">
-        <v>1</v>
-      </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8">
-        <v>1</v>
-      </c>
-      <c r="P15" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="8">
-        <v>1</v>
-      </c>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="6">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5">
+        <v>1</v>
+      </c>
+      <c r="P15" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>1</v>
+      </c>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1051,27 +1026,27 @@
       <c r="A16" s="2">
         <v>5</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="9">
-        <v>1</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="7">
+      <c r="B16" s="7"/>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1079,7 +1054,7 @@
       <c r="A17" s="2">
         <v>5</v>
       </c>
-      <c r="B17" s="11"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="1">
         <v>1</v>
       </c>
@@ -1101,7 +1076,7 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
-      <c r="T17" s="5">
+      <c r="T17" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1109,7 +1084,7 @@
       <c r="A18" s="2">
         <v>5</v>
       </c>
-      <c r="B18" s="11"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="1">
         <v>1</v>
       </c>
@@ -1129,7 +1104,7 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
-      <c r="T18" s="5">
+      <c r="T18" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1137,7 +1112,7 @@
       <c r="A19" s="2">
         <v>5</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="1">
         <v>1</v>
       </c>
@@ -1159,7 +1134,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
-      <c r="T19" s="5">
+      <c r="T19" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1167,7 +1142,7 @@
       <c r="A20" s="2">
         <v>5</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="1">
         <v>1</v>
       </c>
@@ -1189,7 +1164,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-      <c r="T20" s="5">
+      <c r="T20" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1197,29 +1172,29 @@
       <c r="A21" s="2">
         <v>5</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="8">
-        <v>1</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8">
-        <v>1</v>
-      </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="6">
+      <c r="B21" s="9"/>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1227,27 +1202,27 @@
       <c r="A22" s="2">
         <v>6</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="9">
-        <v>1</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="7">
+      <c r="B22" s="7"/>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1255,7 +1230,7 @@
       <c r="A23" s="2">
         <v>6</v>
       </c>
-      <c r="B23" s="11"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="1">
         <v>1</v>
       </c>
@@ -1277,7 +1252,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="5">
+      <c r="T23" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1285,7 +1260,7 @@
       <c r="A24" s="2">
         <v>6</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="1">
         <v>1</v>
       </c>
@@ -1307,7 +1282,7 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
-      <c r="T24" s="5">
+      <c r="T24" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1315,7 +1290,7 @@
       <c r="A25" s="2">
         <v>6</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="1">
         <v>1</v>
       </c>
@@ -1337,7 +1312,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
-      <c r="T25" s="5">
+      <c r="T25" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1345,29 +1320,29 @@
       <c r="A26" s="2">
         <v>6</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="8">
-        <v>1</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8">
-        <v>1</v>
-      </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="6">
+      <c r="B26" s="9"/>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1375,29 +1350,29 @@
       <c r="A27" s="2">
         <v>7</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="9">
-        <v>1</v>
-      </c>
-      <c r="D27" s="9">
-        <v>1</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="7">
+      <c r="B27" s="7"/>
+      <c r="C27" s="6">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1405,7 +1380,7 @@
       <c r="A28" s="2">
         <v>7</v>
       </c>
-      <c r="B28" s="11"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="1">
         <v>1</v>
       </c>
@@ -1425,7 +1400,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
-      <c r="T28" s="5">
+      <c r="T28" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1433,7 +1408,7 @@
       <c r="A29" s="2">
         <v>7</v>
       </c>
-      <c r="B29" s="11"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="1">
         <v>1</v>
       </c>
@@ -1457,7 +1432,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
-      <c r="T29" s="5">
+      <c r="T29" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1465,7 +1440,7 @@
       <c r="A30" s="2">
         <v>7</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="1">
         <v>1</v>
       </c>
@@ -1487,7 +1462,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
-      <c r="T30" s="5">
+      <c r="T30" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1495,7 +1470,7 @@
       <c r="A31" s="2">
         <v>7</v>
       </c>
-      <c r="B31" s="11"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="1">
         <v>1</v>
       </c>
@@ -1517,7 +1492,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
-      <c r="T31" s="5">
+      <c r="T31" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1525,29 +1500,29 @@
       <c r="A32" s="2">
         <v>7</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="8">
-        <v>1</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8">
-        <v>1</v>
-      </c>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="6">
+      <c r="B32" s="9"/>
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1555,29 +1530,29 @@
       <c r="A33" s="2">
         <v>8</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="9">
-        <v>1</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9">
-        <v>1</v>
-      </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="7">
+      <c r="B33" s="7"/>
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6">
+        <v>1</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1585,7 +1560,7 @@
       <c r="A34" s="2">
         <v>8</v>
       </c>
-      <c r="B34" s="11"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="1">
         <v>1</v>
       </c>
@@ -1609,7 +1584,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
-      <c r="T34" s="5">
+      <c r="T34" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1617,7 +1592,7 @@
       <c r="A35" s="2">
         <v>8</v>
       </c>
-      <c r="B35" s="11"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="1">
         <v>1</v>
       </c>
@@ -1639,7 +1614,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
-      <c r="T35" s="5">
+      <c r="T35" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1647,7 +1622,7 @@
       <c r="A36" s="2">
         <v>8</v>
       </c>
-      <c r="B36" s="11"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="1">
         <v>1</v>
       </c>
@@ -1669,7 +1644,7 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
-      <c r="T36" s="5">
+      <c r="T36" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1677,31 +1652,31 @@
       <c r="A37" s="2">
         <v>8</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="8">
-        <v>1</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8">
-        <v>1</v>
-      </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="6">
+      <c r="B37" s="9"/>
+      <c r="C37" s="5">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1709,29 +1684,29 @@
       <c r="A38" s="2">
         <v>9</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9">
-        <v>1</v>
-      </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9">
-        <v>1</v>
-      </c>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="7">
+      <c r="B38" s="7"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6">
+        <v>1</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6">
+        <v>1</v>
+      </c>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1739,7 +1714,7 @@
       <c r="A39" s="2">
         <v>9</v>
       </c>
-      <c r="B39" s="11"/>
+      <c r="B39" s="8"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1761,7 +1736,7 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
-      <c r="T39" s="5">
+      <c r="T39" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1769,29 +1744,29 @@
       <c r="A40" s="2">
         <v>9</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8">
-        <v>1</v>
-      </c>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8">
-        <v>1</v>
-      </c>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="6">
+      <c r="B40" s="9"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5">
+        <v>1</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5">
+        <v>1</v>
+      </c>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1805,73 +1780,73 @@
   <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T25"/>
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="1" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1879,7 +1854,7 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1">
         <v>1</v>
@@ -1899,7 +1874,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="5">
+      <c r="T2" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1907,7 +1882,7 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
         <v>1</v>
@@ -1927,7 +1902,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="5">
+      <c r="T3" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1935,31 +1910,31 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="8">
-        <v>1</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="6">
+      <c r="B4" s="9"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1967,27 +1942,27 @@
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="7">
+      <c r="B5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1995,7 +1970,7 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
         <v>1</v>
@@ -2015,7 +1990,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="5">
+      <c r="T6" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2023,31 +1998,31 @@
       <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>1</v>
-      </c>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="6">
+      <c r="B7" s="9"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>1</v>
+      </c>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2055,29 +2030,29 @@
       <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9">
-        <v>1</v>
-      </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="7">
+      <c r="B8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6">
+        <v>1</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2085,7 +2060,7 @@
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
         <v>1</v>
@@ -2107,7 +2082,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="5">
+      <c r="T9" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2115,7 +2090,7 @@
       <c r="A10" s="2">
         <v>3</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
         <v>1</v>
@@ -2141,7 +2116,7 @@
       <c r="S10" s="1">
         <v>1</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2149,29 +2124,29 @@
       <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="6">
+      <c r="B11" s="9"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2179,29 +2154,29 @@
       <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9">
-        <v>1</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9">
-        <v>1</v>
-      </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="7">
+      <c r="B12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6">
+        <v>1</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2209,7 +2184,7 @@
       <c r="A13" s="2">
         <v>4</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2233,7 +2208,7 @@
       <c r="S13" s="1">
         <v>1</v>
       </c>
-      <c r="T13" s="5">
+      <c r="T13" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2241,7 +2216,7 @@
       <c r="A14" s="2">
         <v>4</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
         <v>1</v>
@@ -2263,7 +2238,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="5">
+      <c r="T14" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2271,7 +2246,7 @@
       <c r="A15" s="2">
         <v>4</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <v>1</v>
@@ -2293,7 +2268,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="5">
+      <c r="T15" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2301,29 +2276,29 @@
       <c r="A16" s="2">
         <v>4</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8">
-        <v>1</v>
-      </c>
-      <c r="T16" s="6">
+      <c r="B16" s="9"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5">
+        <v>1</v>
+      </c>
+      <c r="T16" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2331,29 +2306,29 @@
       <c r="A17" s="2">
         <v>5</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9">
-        <v>1</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9">
-        <v>1</v>
-      </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="7">
+      <c r="B17" s="7"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6">
+        <v>1</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2361,7 +2336,7 @@
       <c r="A18" s="2">
         <v>5</v>
       </c>
-      <c r="B18" s="11"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2385,7 +2360,7 @@
       <c r="S18" s="1">
         <v>1</v>
       </c>
-      <c r="T18" s="5">
+      <c r="T18" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2393,7 +2368,7 @@
       <c r="A19" s="2">
         <v>5</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1">
         <v>1</v>
@@ -2417,7 +2392,7 @@
       <c r="S19" s="1">
         <v>1</v>
       </c>
-      <c r="T19" s="5">
+      <c r="T19" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2425,7 +2400,7 @@
       <c r="A20" s="2">
         <v>5</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2447,7 +2422,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-      <c r="T20" s="5">
+      <c r="T20" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2455,27 +2430,27 @@
       <c r="A21" s="2">
         <v>5</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="6">
+      <c r="B21" s="9"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2483,27 +2458,27 @@
       <c r="A22" s="2">
         <v>6</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9">
-        <v>1</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="7">
+      <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2511,7 +2486,7 @@
       <c r="A23" s="2">
         <v>6</v>
       </c>
-      <c r="B23" s="11"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <v>1</v>
@@ -2531,7 +2506,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="5">
+      <c r="T23" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2539,7 +2514,7 @@
       <c r="A24" s="2">
         <v>6</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
         <v>1</v>
@@ -2561,7 +2536,7 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
-      <c r="T24" s="5">
+      <c r="T24" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2569,27 +2544,27 @@
       <c r="A25" s="2">
         <v>6</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8">
-        <v>1</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="6">
+      <c r="B25" s="9"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2597,27 +2572,27 @@
       <c r="A26" s="2">
         <v>7</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="9">
-        <v>1</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="7">
+      <c r="B26" s="7"/>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2625,7 +2600,7 @@
       <c r="A27" s="2">
         <v>7</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1">
         <v>1</v>
@@ -2647,7 +2622,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
-      <c r="T27" s="5">
+      <c r="T27" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2655,7 +2630,7 @@
       <c r="A28" s="2">
         <v>7</v>
       </c>
-      <c r="B28" s="11"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1">
         <v>1</v>
@@ -2675,7 +2650,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
-      <c r="T28" s="5">
+      <c r="T28" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2683,29 +2658,29 @@
       <c r="A29" s="2">
         <v>7</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="8">
-        <v>1</v>
-      </c>
-      <c r="D29" s="8">
-        <v>1</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="6">
+      <c r="B29" s="9"/>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2713,29 +2688,29 @@
       <c r="A30" s="2">
         <v>8</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9">
-        <v>1</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9">
-        <v>1</v>
-      </c>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="7">
+      <c r="B30" s="7"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6">
+        <v>1</v>
+      </c>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2743,7 +2718,7 @@
       <c r="A31" s="2">
         <v>8</v>
       </c>
-      <c r="B31" s="11"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1">
         <v>1</v>
@@ -2765,7 +2740,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
-      <c r="T31" s="5">
+      <c r="T31" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2773,7 +2748,7 @@
       <c r="A32" s="2">
         <v>8</v>
       </c>
-      <c r="B32" s="11"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1">
         <v>1</v>
@@ -2793,7 +2768,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
-      <c r="T32" s="5">
+      <c r="T32" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2801,7 +2776,7 @@
       <c r="A33" s="2">
         <v>8</v>
       </c>
-      <c r="B33" s="11"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2825,7 +2800,7 @@
       <c r="S33" s="1">
         <v>1</v>
       </c>
-      <c r="T33" s="5">
+      <c r="T33" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2833,7 +2808,7 @@
       <c r="A34" s="2">
         <v>8</v>
       </c>
-      <c r="B34" s="11"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1">
         <v>1</v>
@@ -2853,7 +2828,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
-      <c r="T34" s="5">
+      <c r="T34" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2861,7 +2836,7 @@
       <c r="A35" s="2">
         <v>8</v>
       </c>
-      <c r="B35" s="11"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1">
         <v>1</v>
@@ -2881,7 +2856,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
-      <c r="T35" s="5">
+      <c r="T35" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2889,27 +2864,27 @@
       <c r="A36" s="2">
         <v>8</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8">
-        <v>1</v>
-      </c>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="6">
+      <c r="B36" s="9"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5">
+        <v>1</v>
+      </c>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2917,33 +2892,33 @@
       <c r="A37" s="2">
         <v>9</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9">
-        <v>1</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9">
-        <v>1</v>
-      </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9">
-        <v>1</v>
-      </c>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="7">
+      <c r="B37" s="7"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6">
+        <v>1</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6">
+        <v>1</v>
+      </c>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2951,7 +2926,7 @@
       <c r="A38" s="2">
         <v>9</v>
       </c>
-      <c r="B38" s="11"/>
+      <c r="B38" s="8"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1">
         <v>1</v>
@@ -2975,7 +2950,7 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
-      <c r="T38" s="5">
+      <c r="T38" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2983,7 +2958,7 @@
       <c r="A39" s="2">
         <v>9</v>
       </c>
-      <c r="B39" s="11"/>
+      <c r="B39" s="8"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1">
         <v>1</v>
@@ -3005,7 +2980,7 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
-      <c r="T39" s="5">
+      <c r="T39" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3013,27 +2988,27 @@
       <c r="A40" s="2">
         <v>9</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8">
-        <v>1</v>
-      </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="6">
+      <c r="B40" s="9"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5">
+        <v>1</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3047,70 +3022,73 @@
   <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T30"/>
+      <selection activeCell="A44" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3118,7 +3096,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
@@ -3140,7 +3118,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="5">
+      <c r="T2" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3148,7 +3126,7 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
@@ -3170,7 +3148,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="5">
+      <c r="T3" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3178,31 +3156,31 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="12">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8">
-        <v>1</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="6">
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3210,31 +3188,31 @@
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9">
-        <v>1</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="7">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3242,7 +3220,7 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>1</v>
       </c>
       <c r="C6" s="1"/>
@@ -3266,7 +3244,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="5">
+      <c r="T6" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3274,7 +3252,7 @@
       <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>1</v>
       </c>
       <c r="C7" s="1"/>
@@ -3298,7 +3276,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="5">
+      <c r="T7" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3306,7 +3284,7 @@
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>1</v>
       </c>
       <c r="C8" s="1"/>
@@ -3330,7 +3308,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="5">
+      <c r="T8" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3338,31 +3316,31 @@
       <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="12">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8">
-        <v>1</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8">
-        <v>1</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="6">
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3370,35 +3348,35 @@
       <c r="A10" s="2">
         <v>3</v>
       </c>
-      <c r="B10" s="10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9">
-        <v>1</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="7">
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3406,7 +3384,7 @@
       <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="8">
         <v>1</v>
       </c>
       <c r="C11" s="1"/>
@@ -3426,7 +3404,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="5">
+      <c r="T11" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3434,7 +3412,7 @@
       <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="1">
         <v>1</v>
       </c>
@@ -3456,7 +3434,7 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="5">
+      <c r="T12" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3464,33 +3442,33 @@
       <c r="A13" s="2">
         <v>3</v>
       </c>
-      <c r="B13" s="12">
-        <v>1</v>
-      </c>
-      <c r="C13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8">
-        <v>1</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="6">
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3498,33 +3476,33 @@
       <c r="A14" s="2">
         <v>4</v>
       </c>
-      <c r="B14" s="10">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9">
-        <v>1</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9">
-        <v>1</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="7">
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3532,7 +3510,7 @@
       <c r="A15" s="2">
         <v>4</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="8">
         <v>1</v>
       </c>
       <c r="C15" s="1">
@@ -3558,7 +3536,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="5">
+      <c r="T15" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3566,7 +3544,7 @@
       <c r="A16" s="2">
         <v>4</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="8">
         <v>1</v>
       </c>
       <c r="C16" s="1">
@@ -3592,7 +3570,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="5">
+      <c r="T16" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3600,7 +3578,7 @@
       <c r="A17" s="2">
         <v>4</v>
       </c>
-      <c r="B17" s="11"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="1">
         <v>1</v>
       </c>
@@ -3626,7 +3604,7 @@
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
-      <c r="T17" s="5">
+      <c r="T17" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3634,7 +3612,7 @@
       <c r="A18" s="2">
         <v>4</v>
       </c>
-      <c r="B18" s="11"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="1">
         <v>1</v>
       </c>
@@ -3660,7 +3638,7 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
-      <c r="T18" s="5">
+      <c r="T18" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3668,33 +3646,33 @@
       <c r="A19" s="2">
         <v>4</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="8">
-        <v>1</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8">
-        <v>1</v>
-      </c>
-      <c r="F19" s="8">
-        <v>1</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8">
-        <v>1</v>
-      </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="6">
+      <c r="B19" s="9"/>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3702,31 +3680,31 @@
       <c r="A20" s="2">
         <v>5</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="9">
-        <v>1</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9">
-        <v>1</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9">
-        <v>1</v>
-      </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="7">
+      <c r="B20" s="7"/>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3734,7 +3712,7 @@
       <c r="A21" s="2">
         <v>5</v>
       </c>
-      <c r="B21" s="11"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="1">
         <v>1</v>
       </c>
@@ -3758,7 +3736,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
-      <c r="T21" s="5">
+      <c r="T21" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3766,7 +3744,7 @@
       <c r="A22" s="2">
         <v>5</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="1">
         <v>1</v>
       </c>
@@ -3790,7 +3768,7 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="5">
+      <c r="T22" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3798,7 +3776,7 @@
       <c r="A23" s="2">
         <v>5</v>
       </c>
-      <c r="B23" s="11"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="1">
         <v>1</v>
       </c>
@@ -3822,7 +3800,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="5">
+      <c r="T23" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3830,7 +3808,7 @@
       <c r="A24" s="2">
         <v>5</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="1">
         <v>1</v>
       </c>
@@ -3852,7 +3830,7 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
-      <c r="T24" s="5">
+      <c r="T24" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3860,31 +3838,31 @@
       <c r="A25" s="2">
         <v>5</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="8">
-        <v>1</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8">
-        <v>1</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8">
-        <v>1</v>
-      </c>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="6">
+      <c r="B25" s="9"/>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5">
+        <v>1</v>
+      </c>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3892,29 +3870,29 @@
       <c r="A26" s="2">
         <v>6</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="9">
-        <v>1</v>
-      </c>
-      <c r="D26" s="9">
-        <v>1</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="7">
+      <c r="B26" s="7"/>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3922,7 +3900,7 @@
       <c r="A27" s="2">
         <v>6</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="1">
         <v>1</v>
       </c>
@@ -3944,7 +3922,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
-      <c r="T27" s="5">
+      <c r="T27" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3952,7 +3930,7 @@
       <c r="A28" s="2">
         <v>6</v>
       </c>
-      <c r="B28" s="11"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="1">
         <v>1</v>
       </c>
@@ -3976,7 +3954,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
-      <c r="T28" s="5">
+      <c r="T28" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3984,7 +3962,7 @@
       <c r="A29" s="2">
         <v>6</v>
       </c>
-      <c r="B29" s="11"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="1">
         <v>1</v>
       </c>
@@ -4004,7 +3982,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
-      <c r="T29" s="5">
+      <c r="T29" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4012,29 +3990,29 @@
       <c r="A30" s="2">
         <v>6</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="8">
-        <v>1</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8">
-        <v>1</v>
-      </c>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="6">
+      <c r="B30" s="9"/>
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5">
+        <v>1</v>
+      </c>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4042,29 +4020,29 @@
       <c r="A31" s="2">
         <v>7</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="9">
-        <v>1</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9">
-        <v>1</v>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="7">
+      <c r="B31" s="7"/>
+      <c r="C31" s="6">
+        <v>1</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4072,7 +4050,7 @@
       <c r="A32" s="2">
         <v>7</v>
       </c>
-      <c r="B32" s="11"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="1">
         <v>1</v>
       </c>
@@ -4096,7 +4074,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
-      <c r="T32" s="5">
+      <c r="T32" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4104,7 +4082,7 @@
       <c r="A33" s="2">
         <v>7</v>
       </c>
-      <c r="B33" s="11"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="1">
         <v>1</v>
       </c>
@@ -4126,7 +4104,7 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
-      <c r="T33" s="5">
+      <c r="T33" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4134,29 +4112,29 @@
       <c r="A34" s="2">
         <v>7</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="8">
-        <v>1</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8">
-        <v>1</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="6">
+      <c r="B34" s="9"/>
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4164,27 +4142,27 @@
       <c r="A35" s="2">
         <v>8</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9">
-        <v>1</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="7">
+      <c r="B35" s="7"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4192,7 +4170,7 @@
       <c r="A36" s="2">
         <v>8</v>
       </c>
-      <c r="B36" s="11"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="1">
         <v>1</v>
       </c>
@@ -4216,7 +4194,7 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
-      <c r="T36" s="5">
+      <c r="T36" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4224,7 +4202,7 @@
       <c r="A37" s="2">
         <v>8</v>
       </c>
-      <c r="B37" s="11"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="1">
         <v>1</v>
       </c>
@@ -4244,7 +4222,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
-      <c r="T37" s="5">
+      <c r="T37" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4252,7 +4230,7 @@
       <c r="A38" s="2">
         <v>8</v>
       </c>
-      <c r="B38" s="11"/>
+      <c r="B38" s="8"/>
       <c r="C38" s="1">
         <v>1</v>
       </c>
@@ -4272,7 +4250,7 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
-      <c r="T38" s="5">
+      <c r="T38" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4280,29 +4258,29 @@
       <c r="A39" s="2">
         <v>8</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="8">
-        <v>1</v>
-      </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="6">
+      <c r="B39" s="9"/>
+      <c r="C39" s="5">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4310,27 +4288,27 @@
       <c r="A40" s="2">
         <v>9</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9">
-        <v>1</v>
-      </c>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="7">
+      <c r="B40" s="7"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6">
+        <v>1</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4338,7 +4316,7 @@
       <c r="A41" s="2">
         <v>9</v>
       </c>
-      <c r="B41" s="11"/>
+      <c r="B41" s="8"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -4360,7 +4338,7 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
-      <c r="T41" s="5">
+      <c r="T41" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4368,31 +4346,31 @@
       <c r="A42" s="2">
         <v>9</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8">
-        <v>1</v>
-      </c>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8">
-        <v>1</v>
-      </c>
-      <c r="J42" s="8">
-        <v>1</v>
-      </c>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="6">
+      <c r="B42" s="9"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5">
+        <v>1</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5">
+        <v>1</v>
+      </c>
+      <c r="J42" s="5">
+        <v>1</v>
+      </c>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4405,8 +4383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T38"/>
+    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:XFD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4415,61 +4393,61 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4477,27 +4455,27 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9">
-        <v>1</v>
-      </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="7">
+      <c r="B2" s="7"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6">
+        <v>1</v>
+      </c>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4505,7 +4483,7 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -4525,7 +4503,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="5">
+      <c r="T3" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4533,7 +4511,7 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -4553,7 +4531,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="5">
+      <c r="T4" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4561,7 +4539,7 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -4585,7 +4563,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="5">
+      <c r="T5" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4593,7 +4571,7 @@
       <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>1</v>
       </c>
       <c r="C6" s="1"/>
@@ -4621,7 +4599,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="5">
+      <c r="T6" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4629,31 +4607,31 @@
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8">
-        <v>1</v>
-      </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8">
-        <v>1</v>
-      </c>
-      <c r="S7" s="8">
-        <v>1</v>
-      </c>
-      <c r="T7" s="6">
+      <c r="B7" s="9"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5">
+        <v>1</v>
+      </c>
+      <c r="S7" s="5">
+        <v>1</v>
+      </c>
+      <c r="T7" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4661,29 +4639,29 @@
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="10">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9">
-        <v>1</v>
-      </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="7">
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6">
+        <v>1</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4691,7 +4669,7 @@
       <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>1</v>
       </c>
       <c r="C9" s="1"/>
@@ -4715,7 +4693,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="5">
+      <c r="T9" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4723,7 +4701,7 @@
       <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="8">
         <v>1</v>
       </c>
       <c r="C10" s="1"/>
@@ -4747,7 +4725,7 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="5">
+      <c r="T10" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4755,7 +4733,7 @@
       <c r="A11" s="2">
         <v>2</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="8">
         <v>1</v>
       </c>
       <c r="C11" s="1"/>
@@ -4779,7 +4757,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="5">
+      <c r="T11" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4787,7 +4765,7 @@
       <c r="A12" s="2">
         <v>2</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -4809,7 +4787,7 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="5">
+      <c r="T12" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4817,31 +4795,31 @@
       <c r="A13" s="2">
         <v>2</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8">
-        <v>1</v>
-      </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8">
-        <v>1</v>
-      </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8">
-        <v>1</v>
-      </c>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="6">
+      <c r="B13" s="9"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5">
+        <v>1</v>
+      </c>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5">
+        <v>1</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4849,31 +4827,31 @@
       <c r="A14" s="2">
         <v>3</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9">
-        <v>1</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9">
-        <v>1</v>
-      </c>
-      <c r="M14" s="9">
-        <v>1</v>
-      </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="7">
+      <c r="B14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6">
+        <v>1</v>
+      </c>
+      <c r="M14" s="6">
+        <v>1</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4881,7 +4859,7 @@
       <c r="A15" s="2">
         <v>3</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <v>1</v>
@@ -4905,7 +4883,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="5">
+      <c r="T15" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4913,7 +4891,7 @@
       <c r="A16" s="2">
         <v>3</v>
       </c>
-      <c r="B16" s="11"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -4933,7 +4911,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="5">
+      <c r="T16" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4941,7 +4919,7 @@
       <c r="A17" s="2">
         <v>3</v>
       </c>
-      <c r="B17" s="11"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -4963,7 +4941,7 @@
       <c r="S17" s="1">
         <v>1</v>
       </c>
-      <c r="T17" s="5">
+      <c r="T17" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4971,7 +4949,7 @@
       <c r="A18" s="2">
         <v>3</v>
       </c>
-      <c r="B18" s="11"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1">
@@ -4993,7 +4971,7 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
-      <c r="T18" s="5">
+      <c r="T18" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5001,7 +4979,7 @@
       <c r="A19" s="2">
         <v>3</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -5023,7 +5001,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="1"/>
-      <c r="T19" s="5">
+      <c r="T19" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5031,27 +5009,27 @@
       <c r="A20" s="2">
         <v>3</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8">
-        <v>1</v>
-      </c>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="6">
+      <c r="B20" s="9"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5">
+        <v>1</v>
+      </c>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5059,31 +5037,31 @@
       <c r="A21" s="2">
         <v>4</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9">
-        <v>1</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9">
-        <v>1</v>
-      </c>
-      <c r="M21" s="9">
-        <v>1</v>
-      </c>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="7">
+      <c r="B21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6">
+        <v>1</v>
+      </c>
+      <c r="M21" s="6">
+        <v>1</v>
+      </c>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6">
         <v>1</v>
       </c>
     </row>
@@ -5091,7 +5069,7 @@
       <c r="A22" s="2">
         <v>4</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -5111,7 +5089,7 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="5">
+      <c r="T22" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5119,7 +5097,7 @@
       <c r="A23" s="2">
         <v>4</v>
       </c>
-      <c r="B23" s="11"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -5139,7 +5117,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="5">
+      <c r="T23" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5147,7 +5125,7 @@
       <c r="A24" s="2">
         <v>4</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -5169,7 +5147,7 @@
       <c r="S24" s="1">
         <v>1</v>
       </c>
-      <c r="T24" s="5">
+      <c r="T24" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5177,7 +5155,7 @@
       <c r="A25" s="2">
         <v>4</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -5199,7 +5177,7 @@
         <v>1</v>
       </c>
       <c r="S25" s="1"/>
-      <c r="T25" s="5">
+      <c r="T25" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5207,7 +5185,7 @@
       <c r="A26" s="2">
         <v>4</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -5229,7 +5207,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
-      <c r="T26" s="5">
+      <c r="T26" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5237,27 +5215,27 @@
       <c r="A27" s="2">
         <v>4</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8">
-        <v>1</v>
-      </c>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="6">
+      <c r="B27" s="9"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5">
+        <v>1</v>
+      </c>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5265,37 +5243,37 @@
       <c r="A28" s="2">
         <v>5</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9">
-        <v>1</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9">
-        <v>1</v>
-      </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9">
-        <v>1</v>
-      </c>
-      <c r="M28" s="9">
-        <v>1</v>
-      </c>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9">
-        <v>1</v>
-      </c>
-      <c r="S28" s="9">
-        <v>1</v>
-      </c>
-      <c r="T28" s="7">
+      <c r="B28" s="7"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6">
+        <v>1</v>
+      </c>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6">
+        <v>1</v>
+      </c>
+      <c r="M28" s="6">
+        <v>1</v>
+      </c>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6">
+        <v>1</v>
+      </c>
+      <c r="S28" s="6">
+        <v>1</v>
+      </c>
+      <c r="T28" s="6">
         <v>1</v>
       </c>
     </row>
@@ -5303,7 +5281,7 @@
       <c r="A29" s="2">
         <v>5</v>
       </c>
-      <c r="B29" s="11"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -5323,7 +5301,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
-      <c r="T29" s="5">
+      <c r="T29" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5331,7 +5309,7 @@
       <c r="A30" s="2">
         <v>5</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -5353,7 +5331,7 @@
       <c r="S30" s="1">
         <v>1</v>
       </c>
-      <c r="T30" s="5">
+      <c r="T30" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5361,7 +5339,7 @@
       <c r="A31" s="2">
         <v>5</v>
       </c>
-      <c r="B31" s="11"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
@@ -5383,7 +5361,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
-      <c r="T31" s="5">
+      <c r="T31" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5391,27 +5369,27 @@
       <c r="A32" s="2">
         <v>5</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8">
-        <v>1</v>
-      </c>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="6">
+      <c r="B32" s="9"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5">
+        <v>1</v>
+      </c>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5419,31 +5397,31 @@
       <c r="A33" s="2">
         <v>6</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9">
-        <v>1</v>
-      </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9">
-        <v>1</v>
-      </c>
-      <c r="S33" s="9">
-        <v>1</v>
-      </c>
-      <c r="T33" s="7">
+      <c r="B33" s="7"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6">
+        <v>1</v>
+      </c>
+      <c r="S33" s="6">
+        <v>1</v>
+      </c>
+      <c r="T33" s="6">
         <v>1</v>
       </c>
     </row>
@@ -5451,7 +5429,7 @@
       <c r="A34" s="2">
         <v>6</v>
       </c>
-      <c r="B34" s="11"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -5473,7 +5451,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
-      <c r="T34" s="5">
+      <c r="T34" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5481,7 +5459,7 @@
       <c r="A35" s="2">
         <v>6</v>
       </c>
-      <c r="B35" s="11"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -5503,7 +5481,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
-      <c r="T35" s="5">
+      <c r="T35" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5511,7 +5489,7 @@
       <c r="A36" s="2">
         <v>6</v>
       </c>
-      <c r="B36" s="11"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="1">
         <v>1</v>
       </c>
@@ -5535,7 +5513,7 @@
       <c r="S36" s="1">
         <v>1</v>
       </c>
-      <c r="T36" s="5">
+      <c r="T36" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5543,7 +5521,7 @@
       <c r="A37" s="2">
         <v>6</v>
       </c>
-      <c r="B37" s="11"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -5563,7 +5541,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
-      <c r="T37" s="5">
+      <c r="T37" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5571,27 +5549,27 @@
       <c r="A38" s="2">
         <v>6</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8">
-        <v>1</v>
-      </c>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="6">
+      <c r="B38" s="9"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5">
+        <v>1</v>
+      </c>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5599,29 +5577,29 @@
       <c r="A39" s="2">
         <v>7</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="9">
-        <v>1</v>
-      </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9">
-        <v>1</v>
-      </c>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="7">
+      <c r="B39" s="7"/>
+      <c r="C39" s="6">
+        <v>1</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6">
+        <v>1</v>
+      </c>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6">
         <v>1</v>
       </c>
     </row>
@@ -5629,7 +5607,7 @@
       <c r="A40" s="2">
         <v>7</v>
       </c>
-      <c r="B40" s="11"/>
+      <c r="B40" s="8"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -5651,7 +5629,7 @@
       <c r="S40" s="1">
         <v>1</v>
       </c>
-      <c r="T40" s="5">
+      <c r="T40" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5659,7 +5637,7 @@
       <c r="A41" s="2">
         <v>7</v>
       </c>
-      <c r="B41" s="11"/>
+      <c r="B41" s="8"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -5681,7 +5659,7 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
-      <c r="T41" s="5">
+      <c r="T41" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5689,7 +5667,7 @@
       <c r="A42" s="2">
         <v>7</v>
       </c>
-      <c r="B42" s="11"/>
+      <c r="B42" s="8"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -5711,7 +5689,7 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
-      <c r="T42" s="5">
+      <c r="T42" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5719,7 +5697,7 @@
       <c r="A43" s="2">
         <v>7</v>
       </c>
-      <c r="B43" s="11"/>
+      <c r="B43" s="8"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -5739,7 +5717,7 @@
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
-      <c r="T43" s="5">
+      <c r="T43" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5747,7 +5725,7 @@
       <c r="A44" s="2">
         <v>7</v>
       </c>
-      <c r="B44" s="11"/>
+      <c r="B44" s="8"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -5767,7 +5745,7 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
-      <c r="T44" s="5">
+      <c r="T44" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5775,27 +5753,27 @@
       <c r="A45" s="2">
         <v>7</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8">
-        <v>1</v>
-      </c>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="6">
+      <c r="B45" s="9"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5">
+        <v>1</v>
+      </c>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5803,29 +5781,29 @@
       <c r="A46" s="2">
         <v>8</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9">
-        <v>1</v>
-      </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9">
-        <v>1</v>
-      </c>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="7">
+      <c r="B46" s="7"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6">
+        <v>1</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6">
+        <v>1</v>
+      </c>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6">
         <v>1</v>
       </c>
     </row>
@@ -5833,7 +5811,7 @@
       <c r="A47" s="2">
         <v>8</v>
       </c>
-      <c r="B47" s="11"/>
+      <c r="B47" s="8"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -5853,7 +5831,7 @@
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
-      <c r="T47" s="5">
+      <c r="T47" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5861,7 +5839,7 @@
       <c r="A48" s="2">
         <v>8</v>
       </c>
-      <c r="B48" s="11"/>
+      <c r="B48" s="8"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -5881,7 +5859,7 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
-      <c r="T48" s="5">
+      <c r="T48" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5889,7 +5867,7 @@
       <c r="A49" s="2">
         <v>8</v>
       </c>
-      <c r="B49" s="11"/>
+      <c r="B49" s="8"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -5909,7 +5887,7 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
-      <c r="T49" s="5">
+      <c r="T49" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5917,7 +5895,7 @@
       <c r="A50" s="2">
         <v>8</v>
       </c>
-      <c r="B50" s="11"/>
+      <c r="B50" s="8"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -5937,7 +5915,7 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
-      <c r="T50" s="5">
+      <c r="T50" s="1">
         <v>1</v>
       </c>
     </row>
@@ -5945,29 +5923,29 @@
       <c r="A51" s="2">
         <v>8</v>
       </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8">
-        <v>1</v>
-      </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8">
-        <v>1</v>
-      </c>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="6">
+      <c r="B51" s="9"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5">
+        <v>1</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5">
+        <v>1</v>
+      </c>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5975,29 +5953,29 @@
       <c r="A52" s="2">
         <v>9</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9">
-        <v>1</v>
-      </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9">
-        <v>1</v>
-      </c>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="7">
+      <c r="B52" s="7"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6">
+        <v>1</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6">
+        <v>1</v>
+      </c>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6">
         <v>1</v>
       </c>
     </row>
@@ -6005,7 +5983,7 @@
       <c r="A53" s="2">
         <v>9</v>
       </c>
-      <c r="B53" s="11"/>
+      <c r="B53" s="8"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1">
         <v>1</v>
@@ -6027,7 +6005,7 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
-      <c r="T53" s="5">
+      <c r="T53" s="1">
         <v>1</v>
       </c>
     </row>
@@ -6035,7 +6013,7 @@
       <c r="A54" s="2">
         <v>9</v>
       </c>
-      <c r="B54" s="11"/>
+      <c r="B54" s="8"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1">
         <v>1</v>
@@ -6057,7 +6035,7 @@
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
-      <c r="T54" s="5">
+      <c r="T54" s="1">
         <v>1</v>
       </c>
     </row>
@@ -6065,7 +6043,7 @@
       <c r="A55" s="2">
         <v>9</v>
       </c>
-      <c r="B55" s="11"/>
+      <c r="B55" s="8"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1">
         <v>1</v>
@@ -6089,7 +6067,7 @@
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
-      <c r="T55" s="5">
+      <c r="T55" s="1">
         <v>1</v>
       </c>
     </row>
@@ -6097,7 +6075,7 @@
       <c r="A56" s="2">
         <v>9</v>
       </c>
-      <c r="B56" s="11"/>
+      <c r="B56" s="8"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1">
         <v>1</v>
@@ -6121,7 +6099,7 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
-      <c r="T56" s="5">
+      <c r="T56" s="1">
         <v>1</v>
       </c>
     </row>
@@ -6129,7 +6107,7 @@
       <c r="A57" s="2">
         <v>9</v>
       </c>
-      <c r="B57" s="11"/>
+      <c r="B57" s="8"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1">
         <v>1</v>
@@ -6151,7 +6129,7 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
-      <c r="T57" s="5">
+      <c r="T57" s="1">
         <v>1</v>
       </c>
     </row>
@@ -6159,7 +6137,7 @@
       <c r="A58" s="2">
         <v>9</v>
       </c>
-      <c r="B58" s="11"/>
+      <c r="B58" s="8"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1">
         <v>1</v>
@@ -6181,7 +6159,7 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
-      <c r="T58" s="5">
+      <c r="T58" s="1">
         <v>1</v>
       </c>
     </row>
@@ -6189,31 +6167,31 @@
       <c r="A59" s="2">
         <v>9</v>
       </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8">
-        <v>1</v>
-      </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8">
-        <v>1</v>
-      </c>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8">
-        <v>1</v>
-      </c>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="8"/>
-      <c r="S59" s="8"/>
-      <c r="T59" s="6">
+      <c r="B59" s="9"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5">
+        <v>1</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5">
+        <v>1</v>
+      </c>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5">
+        <v>1</v>
+      </c>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6226,71 +6204,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB28" sqref="AB28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6298,7 +6279,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -6318,7 +6299,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="5">
+      <c r="T2" s="1">
         <v>1</v>
       </c>
     </row>
@@ -6326,7 +6307,7 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -6346,7 +6327,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="5">
+      <c r="T3" s="1">
         <v>1</v>
       </c>
     </row>
@@ -6354,7 +6335,7 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -6374,7 +6355,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="5">
+      <c r="T4" s="1">
         <v>1</v>
       </c>
     </row>
@@ -6382,7 +6363,7 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -6402,7 +6383,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="5">
+      <c r="T5" s="1">
         <v>1</v>
       </c>
     </row>
@@ -6410,27 +6391,27 @@
       <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8">
-        <v>1</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="6">
+      <c r="B6" s="9"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6438,29 +6419,29 @@
       <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9">
-        <v>1</v>
-      </c>
-      <c r="H7" s="9">
-        <v>1</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="7">
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6">
         <v>1</v>
       </c>
     </row>
@@ -6468,7 +6449,7 @@
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -6490,7 +6471,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="5">
+      <c r="T8" s="1">
         <v>1</v>
       </c>
     </row>
@@ -6498,7 +6479,7 @@
       <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -6520,7 +6501,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="5">
+      <c r="T9" s="1">
         <v>1</v>
       </c>
     </row>
@@ -6528,7 +6509,7 @@
       <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -6550,7 +6531,7 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="5">
+      <c r="T10" s="1">
         <v>1</v>
       </c>
     </row>
@@ -6558,27 +6539,27 @@
       <c r="A11" s="2">
         <v>2</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8">
-        <v>1</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="6">
+      <c r="B11" s="9"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6586,31 +6567,31 @@
       <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9">
-        <v>1</v>
-      </c>
-      <c r="H12" s="9">
-        <v>1</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9">
-        <v>1</v>
-      </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="7">
+      <c r="B12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6">
+        <v>1</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6">
         <v>1</v>
       </c>
     </row>
@@ -6618,7 +6599,7 @@
       <c r="A13" s="2">
         <v>3</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -6642,7 +6623,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="5">
+      <c r="T13" s="1">
         <v>1</v>
       </c>
     </row>
@@ -6650,7 +6631,7 @@
       <c r="A14" s="2">
         <v>3</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -6674,7 +6655,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="5">
+      <c r="T14" s="1">
         <v>1</v>
       </c>
     </row>
@@ -6682,7 +6663,7 @@
       <c r="A15" s="2">
         <v>3</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -6702,7 +6683,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="5">
+      <c r="T15" s="1">
         <v>1</v>
       </c>
     </row>
@@ -6710,7 +6691,7 @@
       <c r="A16" s="2">
         <v>3</v>
       </c>
-      <c r="B16" s="11"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -6732,7 +6713,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="5">
+      <c r="T16" s="1">
         <v>1</v>
       </c>
     </row>
@@ -6740,29 +6721,29 @@
       <c r="A17" s="2">
         <v>3</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8">
-        <v>1</v>
-      </c>
-      <c r="H17" s="8">
-        <v>1</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="6">
+      <c r="B17" s="9"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6770,27 +6751,27 @@
       <c r="A18" s="2">
         <v>4</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9">
-        <v>1</v>
-      </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="7">
+      <c r="B18" s="7"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6">
+        <v>1</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6">
         <v>1</v>
       </c>
     </row>
@@ -6798,7 +6779,7 @@
       <c r="A19" s="2">
         <v>4</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -6822,7 +6803,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
-      <c r="T19" s="5">
+      <c r="T19" s="1">
         <v>1</v>
       </c>
     </row>
@@ -6830,7 +6811,7 @@
       <c r="A20" s="2">
         <v>4</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -6856,7 +6837,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-      <c r="T20" s="5">
+      <c r="T20" s="1">
         <v>1</v>
       </c>
     </row>
@@ -6864,7 +6845,7 @@
       <c r="A21" s="2">
         <v>4</v>
       </c>
-      <c r="B21" s="11"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -6888,7 +6869,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
-      <c r="T21" s="5">
+      <c r="T21" s="1">
         <v>1</v>
       </c>
     </row>
@@ -6896,7 +6877,7 @@
       <c r="A22" s="2">
         <v>4</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -6918,7 +6899,7 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="5">
+      <c r="T22" s="1">
         <v>1</v>
       </c>
     </row>
@@ -6926,35 +6907,35 @@
       <c r="A23" s="2">
         <v>4</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8">
-        <v>1</v>
-      </c>
-      <c r="H23" s="8">
-        <v>1</v>
-      </c>
-      <c r="I23" s="8">
-        <v>1</v>
-      </c>
-      <c r="J23" s="8">
-        <v>1</v>
-      </c>
-      <c r="K23" s="8">
-        <v>1</v>
-      </c>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="6">
+      <c r="B23" s="9"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5">
+        <v>1</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5">
         <v>1</v>
       </c>
     </row>
@@ -6962,27 +6943,27 @@
       <c r="A24" s="2">
         <v>5</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9">
-        <v>1</v>
-      </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="7">
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6">
+        <v>1</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6">
         <v>1</v>
       </c>
     </row>
@@ -6990,7 +6971,7 @@
       <c r="A25" s="2">
         <v>5</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -7012,7 +6993,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
-      <c r="T25" s="5">
+      <c r="T25" s="1">
         <v>1</v>
       </c>
     </row>
@@ -7020,7 +7001,7 @@
       <c r="A26" s="2">
         <v>5</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -7042,7 +7023,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
-      <c r="T26" s="5">
+      <c r="T26" s="1">
         <v>1</v>
       </c>
     </row>
@@ -7050,7 +7031,7 @@
       <c r="A27" s="2">
         <v>5</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -7074,7 +7055,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
-      <c r="T27" s="5">
+      <c r="T27" s="1">
         <v>1</v>
       </c>
     </row>
@@ -7082,33 +7063,33 @@
       <c r="A28" s="2">
         <v>5</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8">
-        <v>1</v>
-      </c>
-      <c r="H28" s="8">
-        <v>1</v>
-      </c>
-      <c r="I28" s="8">
-        <v>1</v>
-      </c>
-      <c r="J28" s="8">
-        <v>1</v>
-      </c>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="6">
+      <c r="B28" s="9"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5">
+        <v>1</v>
+      </c>
+      <c r="H28" s="5">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5">
         <v>1</v>
       </c>
     </row>
@@ -7116,31 +7097,31 @@
       <c r="A29" s="2">
         <v>6</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9">
-        <v>1</v>
-      </c>
-      <c r="G29" s="9">
-        <v>1</v>
-      </c>
-      <c r="H29" s="9">
-        <v>1</v>
-      </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="7">
+      <c r="B29" s="7"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6">
+        <v>1</v>
+      </c>
+      <c r="H29" s="6">
+        <v>1</v>
+      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6">
         <v>1</v>
       </c>
     </row>
@@ -7148,7 +7129,7 @@
       <c r="A30" s="2">
         <v>6</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -7172,7 +7153,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
-      <c r="T30" s="5">
+      <c r="T30" s="1">
         <v>1</v>
       </c>
     </row>
@@ -7180,7 +7161,7 @@
       <c r="A31" s="2">
         <v>6</v>
       </c>
-      <c r="B31" s="11"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -7208,7 +7189,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
-      <c r="T31" s="5">
+      <c r="T31" s="1">
         <v>1</v>
       </c>
     </row>
@@ -7216,31 +7197,31 @@
       <c r="A32" s="2">
         <v>6</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8">
-        <v>1</v>
-      </c>
-      <c r="H32" s="8">
-        <v>1</v>
-      </c>
-      <c r="I32" s="8">
-        <v>1</v>
-      </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="6">
+      <c r="B32" s="9"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5">
+        <v>1</v>
+      </c>
+      <c r="H32" s="5">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5">
+        <v>1</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5">
         <v>1</v>
       </c>
     </row>
@@ -7248,33 +7229,33 @@
       <c r="A33" s="2">
         <v>7</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9">
-        <v>1</v>
-      </c>
-      <c r="H33" s="9">
-        <v>1</v>
-      </c>
-      <c r="I33" s="9">
-        <v>1</v>
-      </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9">
-        <v>1</v>
-      </c>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="7">
+      <c r="B33" s="7"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
+      <c r="H33" s="6">
+        <v>1</v>
+      </c>
+      <c r="I33" s="6">
+        <v>1</v>
+      </c>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6">
+        <v>1</v>
+      </c>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6">
         <v>1</v>
       </c>
     </row>
@@ -7282,7 +7263,7 @@
       <c r="A34" s="2">
         <v>7</v>
       </c>
-      <c r="B34" s="11"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -7306,7 +7287,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
-      <c r="T34" s="5">
+      <c r="T34" s="1">
         <v>1</v>
       </c>
     </row>
@@ -7314,7 +7295,7 @@
       <c r="A35" s="2">
         <v>7</v>
       </c>
-      <c r="B35" s="11"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -7342,7 +7323,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
-      <c r="T35" s="5">
+      <c r="T35" s="1">
         <v>1</v>
       </c>
     </row>
@@ -7350,7 +7331,7 @@
       <c r="A36" s="2">
         <v>7</v>
       </c>
-      <c r="B36" s="11"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -7370,7 +7351,7 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
-      <c r="T36" s="5">
+      <c r="T36" s="1">
         <v>1</v>
       </c>
     </row>
@@ -7378,7 +7359,7 @@
       <c r="A37" s="2">
         <v>7</v>
       </c>
-      <c r="B37" s="11"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -7398,7 +7379,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
-      <c r="T37" s="5">
+      <c r="T37" s="1">
         <v>1</v>
       </c>
     </row>
@@ -7406,27 +7387,27 @@
       <c r="A38" s="2">
         <v>7</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8">
-        <v>1</v>
-      </c>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="6">
+      <c r="B38" s="9"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5">
+        <v>1</v>
+      </c>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5">
         <v>1</v>
       </c>
     </row>
@@ -7434,27 +7415,27 @@
       <c r="A39" s="2">
         <v>8</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9">
-        <v>1</v>
-      </c>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="7">
+      <c r="B39" s="7"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6">
+        <v>1</v>
+      </c>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6">
         <v>1</v>
       </c>
     </row>
@@ -7462,7 +7443,7 @@
       <c r="A40" s="2">
         <v>8</v>
       </c>
-      <c r="B40" s="11"/>
+      <c r="B40" s="8"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -7482,7 +7463,7 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
-      <c r="T40" s="5">
+      <c r="T40" s="1">
         <v>1</v>
       </c>
     </row>
@@ -7490,7 +7471,7 @@
       <c r="A41" s="2">
         <v>8</v>
       </c>
-      <c r="B41" s="11"/>
+      <c r="B41" s="8"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -7510,7 +7491,7 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
-      <c r="T41" s="5">
+      <c r="T41" s="1">
         <v>1</v>
       </c>
     </row>
@@ -7518,31 +7499,31 @@
       <c r="A42" s="2">
         <v>8</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8">
-        <v>1</v>
-      </c>
-      <c r="I42" s="8">
-        <v>1</v>
-      </c>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8">
-        <v>1</v>
-      </c>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="6">
+      <c r="B42" s="9"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5">
+        <v>1</v>
+      </c>
+      <c r="I42" s="5">
+        <v>1</v>
+      </c>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5">
+        <v>1</v>
+      </c>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5">
         <v>1</v>
       </c>
     </row>
@@ -7550,29 +7531,29 @@
       <c r="A43" s="2">
         <v>9</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9">
-        <v>1</v>
-      </c>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9">
-        <v>1</v>
-      </c>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="7">
+      <c r="B43" s="7"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6">
+        <v>1</v>
+      </c>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6">
+        <v>1</v>
+      </c>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6">
         <v>1</v>
       </c>
     </row>
@@ -7580,7 +7561,7 @@
       <c r="A44" s="2">
         <v>9</v>
       </c>
-      <c r="B44" s="11"/>
+      <c r="B44" s="8"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -7604,7 +7585,7 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
-      <c r="T44" s="5">
+      <c r="T44" s="1">
         <v>1</v>
       </c>
     </row>
@@ -7612,7 +7593,7 @@
       <c r="A45" s="2">
         <v>9</v>
       </c>
-      <c r="B45" s="11"/>
+      <c r="B45" s="8"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -7636,7 +7617,7 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
-      <c r="T45" s="5">
+      <c r="T45" s="1">
         <v>1</v>
       </c>
     </row>
@@ -7644,7 +7625,7 @@
       <c r="A46" s="2">
         <v>9</v>
       </c>
-      <c r="B46" s="11"/>
+      <c r="B46" s="8"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -7668,7 +7649,7 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
-      <c r="T46" s="5">
+      <c r="T46" s="1">
         <v>1</v>
       </c>
     </row>
@@ -7676,1064 +7657,30 @@
       <c r="A47" s="2">
         <v>9</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8">
-        <v>1</v>
-      </c>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8">
-        <v>1</v>
-      </c>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
-      <c r="S47" s="8"/>
-      <c r="T47" s="6">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>14</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>14</v>
-      </c>
-      <c r="E1">
-        <v>5</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <f>SUM(B1:F1)</f>
-        <v>33</v>
-      </c>
-      <c r="H1">
-        <v>33</v>
-      </c>
-      <c r="I1">
-        <f>H1-G1</f>
-        <v>0</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>19</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G18" si="0">SUM(B2:F2)</f>
-        <v>40</v>
-      </c>
-      <c r="H2">
-        <v>62</v>
-      </c>
-      <c r="I2">
-        <f t="shared" ref="I2:I18" si="1">H2-G2</f>
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>21</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="H3">
-        <v>55</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>22</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="H4">
-        <v>30</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="H5">
-        <v>28</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="K5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>16</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="H6">
-        <v>29</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>17</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>18</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="H7">
-        <v>69</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>15</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H8">
-        <v>30</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>14</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="H9">
-        <v>22</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H10">
-        <v>19</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>13</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="H11">
-        <v>29</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>26</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="H12">
-        <v>30</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <v>15</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H14">
-        <v>5</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V14">
-        <f>(17-11)/17*100</f>
-        <v>35.294117647058826</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H15">
-        <v>9</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <v>3</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>7</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="H17">
-        <v>13</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>7</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H18">
-        <v>14</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-      <c r="G20">
-        <v>20</v>
-      </c>
-      <c r="H20">
-        <v>25</v>
-      </c>
-      <c r="I20">
-        <v>25</v>
-      </c>
-      <c r="J20">
-        <v>16</v>
-      </c>
-      <c r="K20">
-        <v>16</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>14</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>14</v>
-      </c>
-      <c r="E21">
-        <v>5</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <f>SUM(B21:F21)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>30</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>28</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <f t="shared" ref="G22:G38" si="2">SUM(B22:F22)</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>33</v>
-      </c>
-      <c r="D23">
-        <v>6</v>
-      </c>
-      <c r="E23">
-        <v>14</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>26</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>8</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <v>6</v>
-      </c>
-      <c r="E25">
-        <v>8</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>6</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>20</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>15</v>
-      </c>
-      <c r="C27">
-        <v>4</v>
-      </c>
-      <c r="D27">
-        <v>19</v>
-      </c>
-      <c r="E27">
-        <v>6</v>
-      </c>
-      <c r="F27">
-        <v>25</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="2"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>25</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>16</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>16</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>14</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>14</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>30</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="E33">
-        <v>7</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>4</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="D35">
-        <v>3</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>5</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>8</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>6</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>8</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="2"/>
-        <v>14</v>
+      <c r="B47" s="9"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5">
+        <v>1</v>
+      </c>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5">
+        <v>1</v>
+      </c>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
